--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>850.2379917011313</v>
+        <v>1065.517128811234</v>
       </c>
       <c r="AB2" t="n">
-        <v>1163.33313009837</v>
+        <v>1457.887542937645</v>
       </c>
       <c r="AC2" t="n">
-        <v>1052.306248910083</v>
+        <v>1318.748801997693</v>
       </c>
       <c r="AD2" t="n">
-        <v>850237.9917011312</v>
+        <v>1065517.128811233</v>
       </c>
       <c r="AE2" t="n">
-        <v>1163333.13009837</v>
+        <v>1457887.542937645</v>
       </c>
       <c r="AF2" t="n">
         <v>3.751687693090201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.84027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1052306.248910083</v>
+        <v>1318748.801997693</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>549.6367558077086</v>
+        <v>696.3972550552294</v>
       </c>
       <c r="AB3" t="n">
-        <v>752.0372575584175</v>
+        <v>952.8414472451467</v>
       </c>
       <c r="AC3" t="n">
-        <v>680.2638771879615</v>
+        <v>861.9035968414394</v>
       </c>
       <c r="AD3" t="n">
-        <v>549636.7558077086</v>
+        <v>696397.2550552294</v>
       </c>
       <c r="AE3" t="n">
-        <v>752037.2575584175</v>
+        <v>952841.4472451467</v>
       </c>
       <c r="AF3" t="n">
         <v>5.224916027425918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.03472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>680263.8771879615</v>
+        <v>861903.5968414394</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.7795701507876</v>
+        <v>597.9971922763925</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.1413772091179</v>
+        <v>818.2061402467521</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.6654282263798</v>
+        <v>740.1176945811314</v>
       </c>
       <c r="AD4" t="n">
-        <v>470779.5701507876</v>
+        <v>597997.1922763925</v>
       </c>
       <c r="AE4" t="n">
-        <v>644141.3772091179</v>
+        <v>818206.1402467521</v>
       </c>
       <c r="AF4" t="n">
         <v>5.808837346244916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.01388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>582665.4282263798</v>
+        <v>740117.6945811315</v>
       </c>
     </row>
     <row r="5">
@@ -2370,28 +2370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.9163546136718</v>
+        <v>567.8873215609871</v>
       </c>
       <c r="AB5" t="n">
-        <v>589.5987670702852</v>
+        <v>777.0084867801889</v>
       </c>
       <c r="AC5" t="n">
-        <v>533.3282882481633</v>
+        <v>702.8518873401473</v>
       </c>
       <c r="AD5" t="n">
-        <v>430916.3546136718</v>
+        <v>567887.321560987</v>
       </c>
       <c r="AE5" t="n">
-        <v>589598.7670702853</v>
+        <v>777008.486780189</v>
       </c>
       <c r="AF5" t="n">
         <v>6.040588747513302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.98379629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>533328.2882481633</v>
+        <v>702851.8873401473</v>
       </c>
     </row>
     <row r="6">
@@ -2476,28 +2476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.6439309202506</v>
+        <v>568.6148978675659</v>
       </c>
       <c r="AB6" t="n">
-        <v>590.5942690713475</v>
+        <v>778.0039887812512</v>
       </c>
       <c r="AC6" t="n">
-        <v>534.22878093544</v>
+        <v>703.7523800274241</v>
       </c>
       <c r="AD6" t="n">
-        <v>431643.9309202506</v>
+        <v>568614.8978675659</v>
       </c>
       <c r="AE6" t="n">
-        <v>590594.2690713475</v>
+        <v>778003.9887812512</v>
       </c>
       <c r="AF6" t="n">
         <v>6.040588747513302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.98379629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>534228.78093544</v>
+        <v>703752.3800274241</v>
       </c>
     </row>
   </sheetData>
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>676.4859811956752</v>
+        <v>860.3822496289486</v>
       </c>
       <c r="AB2" t="n">
-        <v>925.5979639270979</v>
+        <v>1177.212951328284</v>
       </c>
       <c r="AC2" t="n">
-        <v>837.2601933347964</v>
+        <v>1064.861399482266</v>
       </c>
       <c r="AD2" t="n">
-        <v>676485.9811956752</v>
+        <v>860382.2496289485</v>
       </c>
       <c r="AE2" t="n">
-        <v>925597.9639270979</v>
+        <v>1177212.951328284</v>
       </c>
       <c r="AF2" t="n">
         <v>4.703001999341764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.5162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>837260.1933347965</v>
+        <v>1064861.399482266</v>
       </c>
     </row>
     <row r="3">
@@ -2879,28 +2879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.539525405136</v>
+        <v>606.6794318191961</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.4987403461132</v>
+        <v>830.0855634225915</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.2293868815281</v>
+        <v>750.863362281944</v>
       </c>
       <c r="AD3" t="n">
-        <v>461539.5254051361</v>
+        <v>606679.4318191961</v>
       </c>
       <c r="AE3" t="n">
-        <v>631498.7403461132</v>
+        <v>830085.5634225914</v>
       </c>
       <c r="AF3" t="n">
         <v>6.166309852620049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.84722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>571229.3868815281</v>
+        <v>750863.362281944</v>
       </c>
     </row>
     <row r="4">
@@ -2985,28 +2985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.912131726799</v>
+        <v>549.6919508705</v>
       </c>
       <c r="AB4" t="n">
-        <v>580.0152803119606</v>
+        <v>752.1127778783632</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.6594360155449</v>
+        <v>680.3321899545649</v>
       </c>
       <c r="AD4" t="n">
-        <v>423912.131726799</v>
+        <v>549691.9508705001</v>
       </c>
       <c r="AE4" t="n">
-        <v>580015.2803119606</v>
+        <v>752112.7778783632</v>
       </c>
       <c r="AF4" t="n">
         <v>6.553725874208935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.20370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>524659.4360155449</v>
+        <v>680332.1899545649</v>
       </c>
     </row>
   </sheetData>
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.8314603697277</v>
+        <v>534.7408849181946</v>
       </c>
       <c r="AB2" t="n">
-        <v>552.5400198645189</v>
+        <v>731.6560698479408</v>
       </c>
       <c r="AC2" t="n">
-        <v>499.8063758634369</v>
+        <v>661.8278414273962</v>
       </c>
       <c r="AD2" t="n">
-        <v>403831.4603697277</v>
+        <v>534740.8849181946</v>
       </c>
       <c r="AE2" t="n">
-        <v>552540.0198645189</v>
+        <v>731656.0698479408</v>
       </c>
       <c r="AF2" t="n">
         <v>8.528132144486792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.10185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>499806.3758634369</v>
+        <v>661827.8414273962</v>
       </c>
     </row>
   </sheetData>
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.1126009251158</v>
+        <v>613.7653921432163</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.2828475548572</v>
+        <v>839.7808869484226</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.9386599987708</v>
+        <v>759.6333777379417</v>
       </c>
       <c r="AD2" t="n">
-        <v>462112.6009251158</v>
+        <v>613765.3921432163</v>
       </c>
       <c r="AE2" t="n">
-        <v>632282.8475548571</v>
+        <v>839780.8869484225</v>
       </c>
       <c r="AF2" t="n">
         <v>6.976612685245548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.75694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>571938.6599987708</v>
+        <v>759633.3777379417</v>
       </c>
     </row>
     <row r="3">
@@ -3685,28 +3685,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>397.3959824484978</v>
+        <v>530.1177988284214</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.7347150594436</v>
+        <v>725.3305595037492</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.8414369906351</v>
+        <v>656.1060289125447</v>
       </c>
       <c r="AD3" t="n">
-        <v>397395.9824484978</v>
+        <v>530117.7988284214</v>
       </c>
       <c r="AE3" t="n">
-        <v>543734.7150594436</v>
+        <v>725330.5595037492</v>
       </c>
       <c r="AF3" t="n">
         <v>7.709624229105252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>491841.4369906351</v>
+        <v>656106.0289125447</v>
       </c>
     </row>
   </sheetData>
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>406.0315351559987</v>
+        <v>553.983095377272</v>
       </c>
       <c r="AB2" t="n">
-        <v>555.5502592475442</v>
+        <v>757.984111104463</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.5293222246438</v>
+        <v>685.6431713780337</v>
       </c>
       <c r="AD2" t="n">
-        <v>406031.5351559987</v>
+        <v>553983.095377272</v>
       </c>
       <c r="AE2" t="n">
-        <v>555550.2592475442</v>
+        <v>757984.111104463</v>
       </c>
       <c r="AF2" t="n">
         <v>9.239546571657391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.71064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>502529.3222246438</v>
+        <v>685643.1713780337</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>714.7053670814538</v>
+        <v>908.8156102204274</v>
       </c>
       <c r="AB2" t="n">
-        <v>977.8914138163249</v>
+        <v>1243.481612018612</v>
       </c>
       <c r="AC2" t="n">
-        <v>884.5628297609135</v>
+        <v>1124.805472204958</v>
       </c>
       <c r="AD2" t="n">
-        <v>714705.3670814538</v>
+        <v>908815.6102204274</v>
       </c>
       <c r="AE2" t="n">
-        <v>977891.4138163249</v>
+        <v>1243481.612018612</v>
       </c>
       <c r="AF2" t="n">
         <v>4.438369334196931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.75462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>884562.8297609135</v>
+        <v>1124805.472204958</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.5792499362425</v>
+        <v>631.0775297733779</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.3909520073689</v>
+        <v>863.4681174116186</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.9824120263424</v>
+        <v>781.0599321709672</v>
       </c>
       <c r="AD3" t="n">
-        <v>485579.2499362425</v>
+        <v>631077.5297733779</v>
       </c>
       <c r="AE3" t="n">
-        <v>664390.9520073689</v>
+        <v>863468.1174116186</v>
       </c>
       <c r="AF3" t="n">
         <v>5.902815471477711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.39120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>600982.4120263425</v>
+        <v>781059.9321709671</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>428.0191609387431</v>
+        <v>554.1679142157867</v>
       </c>
       <c r="AB4" t="n">
-        <v>585.6346988690835</v>
+        <v>758.2369883929506</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.7425451524797</v>
+        <v>685.8719144130237</v>
       </c>
       <c r="AD4" t="n">
-        <v>428019.1609387432</v>
+        <v>554167.9142157867</v>
       </c>
       <c r="AE4" t="n">
-        <v>585634.6988690835</v>
+        <v>758236.9883929506</v>
       </c>
       <c r="AF4" t="n">
         <v>6.416978832510344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>529742.5451524797</v>
+        <v>685871.9144130236</v>
       </c>
     </row>
     <row r="5">
@@ -4597,28 +4597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.763765681693</v>
+        <v>554.9125189587364</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.6534999280304</v>
+        <v>759.2557894518974</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.6641132682569</v>
+        <v>686.7934825288008</v>
       </c>
       <c r="AD5" t="n">
-        <v>428763.765681693</v>
+        <v>554912.5189587364</v>
       </c>
       <c r="AE5" t="n">
-        <v>586653.4999280304</v>
+        <v>759255.7894518974</v>
       </c>
       <c r="AF5" t="n">
         <v>6.414951717034575e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.12268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>530664.1132682569</v>
+        <v>686793.4825288008</v>
       </c>
     </row>
   </sheetData>
@@ -4894,28 +4894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.5245180431966</v>
+        <v>568.4553266267674</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.748441935974</v>
+        <v>777.7856563698044</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.7043801091263</v>
+        <v>703.5548849548943</v>
       </c>
       <c r="AD2" t="n">
-        <v>421524.5180431966</v>
+        <v>568455.3266267674</v>
       </c>
       <c r="AE2" t="n">
-        <v>576748.4419359741</v>
+        <v>777785.6563698044</v>
       </c>
       <c r="AF2" t="n">
         <v>9.650619495810733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.12268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>521704.3801091263</v>
+        <v>703554.8849548943</v>
       </c>
     </row>
   </sheetData>
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.3102474005034</v>
+        <v>722.2796263028043</v>
       </c>
       <c r="AB2" t="n">
-        <v>765.2729555200087</v>
+        <v>988.2548494357104</v>
       </c>
       <c r="AC2" t="n">
-        <v>692.2363787125172</v>
+        <v>893.937193629958</v>
       </c>
       <c r="AD2" t="n">
-        <v>559310.2474005034</v>
+        <v>722279.6263028043</v>
       </c>
       <c r="AE2" t="n">
-        <v>765272.9555200087</v>
+        <v>988254.8494357105</v>
       </c>
       <c r="AF2" t="n">
         <v>5.667752279491102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.95138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>692236.3787125172</v>
+        <v>893937.193629958</v>
       </c>
     </row>
     <row r="3">
@@ -5297,28 +5297,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.7795596234594</v>
+        <v>544.8821219484961</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.0467157919798</v>
+        <v>745.5317577526012</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.4057660743126</v>
+        <v>674.379253153086</v>
       </c>
       <c r="AD3" t="n">
-        <v>410779.5596234594</v>
+        <v>544882.1219484961</v>
       </c>
       <c r="AE3" t="n">
-        <v>562046.7157919798</v>
+        <v>745531.7577526012</v>
       </c>
       <c r="AF3" t="n">
         <v>7.057867387808883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>508405.7660743126</v>
+        <v>674379.2531530859</v>
       </c>
     </row>
     <row r="4">
@@ -5403,28 +5403,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.1387412858247</v>
+        <v>545.2413036108615</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.5381639884046</v>
+        <v>746.023205949026</v>
       </c>
       <c r="AC4" t="n">
-        <v>508.8503111446224</v>
+        <v>674.8237982233957</v>
       </c>
       <c r="AD4" t="n">
-        <v>411138.7412858247</v>
+        <v>545241.3036108614</v>
       </c>
       <c r="AE4" t="n">
-        <v>562538.1639884046</v>
+        <v>746023.2059490259</v>
       </c>
       <c r="AF4" t="n">
         <v>7.067063831770595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.42361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>508850.3111446224</v>
+        <v>674823.7982233957</v>
       </c>
     </row>
   </sheetData>
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.4586854896806</v>
+        <v>813.0768280649344</v>
       </c>
       <c r="AB2" t="n">
-        <v>874.9355844131583</v>
+        <v>1112.487586576491</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.4329602165709</v>
+        <v>1006.313332699764</v>
       </c>
       <c r="AD2" t="n">
-        <v>639458.6854896806</v>
+        <v>813076.8280649344</v>
       </c>
       <c r="AE2" t="n">
-        <v>874935.5844131582</v>
+        <v>1112487.586576491</v>
       </c>
       <c r="AF2" t="n">
         <v>4.994258161360222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.28935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>791432.9602165709</v>
+        <v>1006313.332699764</v>
       </c>
     </row>
     <row r="3">
@@ -5806,28 +5806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.4676289432776</v>
+        <v>581.4814097848116</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.8767066818546</v>
+        <v>795.6085180168712</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.5754911669802</v>
+        <v>719.6767577009085</v>
       </c>
       <c r="AD3" t="n">
-        <v>446467.6289432776</v>
+        <v>581481.4097848115</v>
       </c>
       <c r="AE3" t="n">
-        <v>610876.7066818546</v>
+        <v>795608.5180168713</v>
       </c>
       <c r="AF3" t="n">
         <v>6.456411988499927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.30324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>552575.4911669802</v>
+        <v>719676.7577009086</v>
       </c>
     </row>
     <row r="4">
@@ -5912,28 +5912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.8188106027335</v>
+        <v>545.2156664296184</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.4146177654311</v>
+        <v>745.9881280266167</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.5932928418771</v>
+        <v>674.7920680886691</v>
       </c>
       <c r="AD4" t="n">
-        <v>419818.8106027335</v>
+        <v>545215.6664296184</v>
       </c>
       <c r="AE4" t="n">
-        <v>574414.6177654311</v>
+        <v>745988.1280266166</v>
       </c>
       <c r="AF4" t="n">
         <v>6.708759545168034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.27314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>519593.2928418771</v>
+        <v>674792.0680886691</v>
       </c>
     </row>
   </sheetData>
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>807.1825823344631</v>
+        <v>1012.066466201392</v>
       </c>
       <c r="AB2" t="n">
-        <v>1104.422819532291</v>
+        <v>1384.75398827805</v>
       </c>
       <c r="AC2" t="n">
-        <v>999.0182557032909</v>
+        <v>1252.595011151221</v>
       </c>
       <c r="AD2" t="n">
-        <v>807182.582334463</v>
+        <v>1012066.466201392</v>
       </c>
       <c r="AE2" t="n">
-        <v>1104422.819532291</v>
+        <v>1384753.98827805</v>
       </c>
       <c r="AF2" t="n">
         <v>3.959561647788043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.46296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>999018.2557032909</v>
+        <v>1252595.011151221</v>
       </c>
     </row>
     <row r="3">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.0752577245942</v>
+        <v>671.5177823761622</v>
       </c>
       <c r="AB3" t="n">
-        <v>718.43113230428</v>
+        <v>918.8002551207773</v>
       </c>
       <c r="AC3" t="n">
-        <v>649.8650733615859</v>
+        <v>831.1112483163068</v>
       </c>
       <c r="AD3" t="n">
-        <v>525075.2577245942</v>
+        <v>671517.7823761622</v>
       </c>
       <c r="AE3" t="n">
-        <v>718431.1323042801</v>
+        <v>918800.2551207773</v>
       </c>
       <c r="AF3" t="n">
         <v>5.431608744075943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.50231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>649865.073361586</v>
+        <v>831111.2483163069</v>
       </c>
     </row>
     <row r="4">
@@ -6421,28 +6421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.6279893146095</v>
+        <v>585.2735135706254</v>
       </c>
       <c r="AB4" t="n">
-        <v>613.8326070502839</v>
+        <v>800.7970417124335</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.249284552879</v>
+        <v>724.3700959771051</v>
       </c>
       <c r="AD4" t="n">
-        <v>448627.9893146094</v>
+        <v>585273.5135706253</v>
       </c>
       <c r="AE4" t="n">
-        <v>613832.6070502838</v>
+        <v>800797.0417124334</v>
       </c>
       <c r="AF4" t="n">
         <v>6.012647177549124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.6550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>555249.2845528789</v>
+        <v>724370.0959771051</v>
       </c>
     </row>
     <row r="5">
@@ -6527,28 +6527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.9485650455146</v>
+        <v>563.7980999358357</v>
       </c>
       <c r="AB5" t="n">
-        <v>597.8523035054747</v>
+        <v>771.4134333489309</v>
       </c>
       <c r="AC5" t="n">
-        <v>540.7941187498895</v>
+        <v>697.7908179556619</v>
       </c>
       <c r="AD5" t="n">
-        <v>436948.5650455146</v>
+        <v>563798.0999358357</v>
       </c>
       <c r="AE5" t="n">
-        <v>597852.3035054747</v>
+        <v>771413.4333489309</v>
       </c>
       <c r="AF5" t="n">
         <v>6.155933996382753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.03009259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>540794.1187498895</v>
+        <v>697790.8179556618</v>
       </c>
     </row>
   </sheetData>
@@ -6824,28 +6824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.6916687302649</v>
+        <v>645.9733751387811</v>
       </c>
       <c r="AB2" t="n">
-        <v>675.4907212960086</v>
+        <v>883.8492701988807</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.0228349126985</v>
+        <v>799.4959363413404</v>
       </c>
       <c r="AD2" t="n">
-        <v>493691.6687302649</v>
+        <v>645973.375138781</v>
       </c>
       <c r="AE2" t="n">
-        <v>675490.7212960086</v>
+        <v>883849.2701988807</v>
       </c>
       <c r="AF2" t="n">
         <v>6.489295283034161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.78703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>611022.8349126985</v>
+        <v>799495.9363413404</v>
       </c>
     </row>
     <row r="3">
@@ -6930,28 +6930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.6373357781104</v>
+        <v>534.8795582082146</v>
       </c>
       <c r="AB3" t="n">
-        <v>549.5379218003227</v>
+        <v>731.8458087611799</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.0907938250165</v>
+        <v>661.9994719250557</v>
       </c>
       <c r="AD3" t="n">
-        <v>401637.3357781104</v>
+        <v>534879.5582082146</v>
       </c>
       <c r="AE3" t="n">
-        <v>549537.9218003227</v>
+        <v>731845.8087611799</v>
       </c>
       <c r="AF3" t="n">
         <v>7.478049875494339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.71296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>497090.7938250165</v>
+        <v>661999.4719250557</v>
       </c>
     </row>
   </sheetData>
@@ -7227,28 +7227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.4755241033782</v>
+        <v>542.4211937955189</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.3165239283269</v>
+        <v>742.16460728521</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.89052585519</v>
+        <v>671.3334588004772</v>
       </c>
       <c r="AD2" t="n">
-        <v>401475.5241033782</v>
+        <v>542421.1937955188</v>
       </c>
       <c r="AE2" t="n">
-        <v>549316.5239283269</v>
+        <v>742164.6072852099</v>
       </c>
       <c r="AF2" t="n">
         <v>8.149231875621129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.87037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>496890.52585519</v>
+        <v>671333.4588004772</v>
       </c>
     </row>
     <row r="3">
@@ -7333,28 +7333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.4443694745927</v>
+        <v>531.0574366356482</v>
       </c>
       <c r="AB3" t="n">
-        <v>546.5374085570045</v>
+        <v>726.6162134054913</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.3766453543938</v>
+        <v>657.2689818103311</v>
       </c>
       <c r="AD3" t="n">
-        <v>399444.3694745927</v>
+        <v>531057.4366356481</v>
       </c>
       <c r="AE3" t="n">
-        <v>546537.4085570045</v>
+        <v>726616.2134054913</v>
       </c>
       <c r="AF3" t="n">
         <v>8.222234675258251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.62731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>494376.6453543938</v>
+        <v>657268.9818103311</v>
       </c>
     </row>
   </sheetData>
@@ -12371,28 +12371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.599153559088</v>
+        <v>539.1544994050918</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.7491909700028</v>
+        <v>737.6949719038422</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.568215551134</v>
+        <v>667.2903991467348</v>
       </c>
       <c r="AD2" t="n">
-        <v>399599.153559088</v>
+        <v>539154.4994050917</v>
       </c>
       <c r="AE2" t="n">
-        <v>546749.1909700028</v>
+        <v>737694.9719038422</v>
       </c>
       <c r="AF2" t="n">
         <v>8.88151665856433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.71527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>494568.215551134</v>
+        <v>667290.3991467347</v>
       </c>
     </row>
   </sheetData>
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.7779443443249</v>
+        <v>603.8284916461644</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.7235850855121</v>
+        <v>826.1847813032456</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.2959306493059</v>
+        <v>747.3348653332864</v>
       </c>
       <c r="AD2" t="n">
-        <v>439777.9443443249</v>
+        <v>603828.4916461643</v>
       </c>
       <c r="AE2" t="n">
-        <v>601723.5850855121</v>
+        <v>826184.7813032456</v>
       </c>
       <c r="AF2" t="n">
         <v>9.979921455613694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.80787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>544295.9306493059</v>
+        <v>747334.8653332865</v>
       </c>
     </row>
   </sheetData>
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.9959700701636</v>
+        <v>766.4760485301514</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.0456885547018</v>
+        <v>1048.726344135705</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.3044859979367</v>
+        <v>948.6373737480608</v>
       </c>
       <c r="AD2" t="n">
-        <v>602995.9700701636</v>
+        <v>766476.0485301514</v>
       </c>
       <c r="AE2" t="n">
-        <v>825045.6885547017</v>
+        <v>1048726.344135705</v>
       </c>
       <c r="AF2" t="n">
         <v>5.321382988871217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>746304.4859979367</v>
+        <v>948637.3737480608</v>
       </c>
     </row>
     <row r="3">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.4882612163046</v>
+        <v>557.1401884885646</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.0670778627687</v>
+        <v>762.3037851804515</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.8971672737846</v>
+        <v>689.5505818229108</v>
       </c>
       <c r="AD3" t="n">
-        <v>422488.2612163046</v>
+        <v>557140.1884885646</v>
       </c>
       <c r="AE3" t="n">
-        <v>578067.0778627687</v>
+        <v>762303.7851804516</v>
       </c>
       <c r="AF3" t="n">
         <v>6.76654803034173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.78240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>522897.1672737846</v>
+        <v>689550.5818229108</v>
       </c>
     </row>
     <row r="4">
@@ -13177,28 +13177,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>415.1178036332034</v>
+        <v>540.1161413243225</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.9824926359296</v>
+        <v>739.0107328023811</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.7750407071909</v>
+        <v>668.480585671799</v>
       </c>
       <c r="AD4" t="n">
-        <v>415117.8036332034</v>
+        <v>540116.1413243224</v>
       </c>
       <c r="AE4" t="n">
-        <v>567982.4926359296</v>
+        <v>739010.732802381</v>
       </c>
       <c r="AF4" t="n">
         <v>6.889314244721716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.30787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>513775.0407071909</v>
+        <v>668480.5856717989</v>
       </c>
     </row>
   </sheetData>
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>764.247933904622</v>
+        <v>958.8730245373353</v>
       </c>
       <c r="AB2" t="n">
-        <v>1045.677739407575</v>
+        <v>1311.972374664265</v>
       </c>
       <c r="AC2" t="n">
-        <v>945.8797235764407</v>
+        <v>1186.7595725911</v>
       </c>
       <c r="AD2" t="n">
-        <v>764247.933904622</v>
+        <v>958873.0245373353</v>
       </c>
       <c r="AE2" t="n">
-        <v>1045677.739407576</v>
+        <v>1311972.374664265</v>
       </c>
       <c r="AF2" t="n">
         <v>4.194300748955057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.05092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>945879.7235764407</v>
+        <v>1186759.5725911</v>
       </c>
     </row>
     <row r="3">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>499.7279723502328</v>
+        <v>645.7387388258508</v>
       </c>
       <c r="AB3" t="n">
-        <v>683.7498582117695</v>
+        <v>883.5282304441058</v>
       </c>
       <c r="AC3" t="n">
-        <v>618.4937313929908</v>
+        <v>799.2055361701792</v>
       </c>
       <c r="AD3" t="n">
-        <v>499727.9723502328</v>
+        <v>645738.7388258508</v>
       </c>
       <c r="AE3" t="n">
-        <v>683749.8582117695</v>
+        <v>883528.2304441058</v>
       </c>
       <c r="AF3" t="n">
         <v>5.66923213265804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>618493.7313929908</v>
+        <v>799205.5361701793</v>
       </c>
     </row>
     <row r="4">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.4542397781635</v>
+        <v>562.959194278938</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.1759458665932</v>
+        <v>770.2656056192581</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.182311734789</v>
+        <v>696.7525372935227</v>
       </c>
       <c r="AD4" t="n">
-        <v>436454.2397781635</v>
+        <v>562959.194278938</v>
       </c>
       <c r="AE4" t="n">
-        <v>597175.9458665933</v>
+        <v>770265.605619258</v>
       </c>
       <c r="AF4" t="n">
         <v>6.228840116401831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.29629629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>540182.3117347889</v>
+        <v>696752.5372935226</v>
       </c>
     </row>
     <row r="5">
@@ -13792,28 +13792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>432.2878177054213</v>
+        <v>558.7927722061959</v>
       </c>
       <c r="AB5" t="n">
-        <v>591.4752633770984</v>
+        <v>764.564923129763</v>
       </c>
       <c r="AC5" t="n">
-        <v>535.0256943811332</v>
+        <v>691.5959199398669</v>
       </c>
       <c r="AD5" t="n">
-        <v>432287.8177054214</v>
+        <v>558792.7722061959</v>
       </c>
       <c r="AE5" t="n">
-        <v>591475.2633770984</v>
+        <v>764564.923129763</v>
       </c>
       <c r="AF5" t="n">
         <v>6.289682450917592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.04166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>535025.6943811332</v>
+        <v>691595.9199398669</v>
       </c>
     </row>
   </sheetData>
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>499.1271491530881</v>
+        <v>679.720536307831</v>
       </c>
       <c r="AB2" t="n">
-        <v>682.9277854069876</v>
+        <v>930.02362493005</v>
       </c>
       <c r="AC2" t="n">
-        <v>617.7501160629107</v>
+        <v>841.2634754630809</v>
       </c>
       <c r="AD2" t="n">
-        <v>499127.1491530881</v>
+        <v>679720.5363078311</v>
       </c>
       <c r="AE2" t="n">
-        <v>682927.7854069876</v>
+        <v>930023.62493005</v>
       </c>
       <c r="AF2" t="n">
         <v>1.004814459993616e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.53703703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>617750.1160629108</v>
+        <v>841263.4754630809</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.4566985058062</v>
+        <v>572.0691509947434</v>
       </c>
       <c r="AB2" t="n">
-        <v>588.9698453049072</v>
+        <v>782.7302503007483</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.7593898933758</v>
+        <v>708.02757378085</v>
       </c>
       <c r="AD2" t="n">
-        <v>430456.6985058062</v>
+        <v>572069.1509947433</v>
       </c>
       <c r="AE2" t="n">
-        <v>588969.8453049072</v>
+        <v>782730.2503007483</v>
       </c>
       <c r="AF2" t="n">
         <v>7.545988173804291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.70370370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>532759.3898933758</v>
+        <v>708027.57378085</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.9900203688186</v>
+        <v>535.0920451895369</v>
       </c>
       <c r="AB3" t="n">
-        <v>551.388724533562</v>
+        <v>732.1365428232891</v>
       </c>
       <c r="AC3" t="n">
-        <v>498.7649585430135</v>
+        <v>662.2624587363251</v>
       </c>
       <c r="AD3" t="n">
-        <v>402990.0203688187</v>
+        <v>535092.0451895369</v>
       </c>
       <c r="AE3" t="n">
-        <v>551388.7245335621</v>
+        <v>732136.5428232892</v>
       </c>
       <c r="AF3" t="n">
         <v>7.956944452594913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.22222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>498764.9585430135</v>
+        <v>662262.4587363251</v>
       </c>
     </row>
   </sheetData>
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.4359277708579</v>
+        <v>688.8017120683736</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.2928610901039</v>
+        <v>942.4488902388235</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.5491213650433</v>
+        <v>852.5028908897546</v>
       </c>
       <c r="AD2" t="n">
-        <v>526435.9277708579</v>
+        <v>688801.7120683736</v>
       </c>
       <c r="AE2" t="n">
-        <v>720292.8610901039</v>
+        <v>942448.8902388235</v>
       </c>
       <c r="AF2" t="n">
         <v>6.049194480868906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.88657407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>651549.1213650433</v>
+        <v>852502.8908897545</v>
       </c>
     </row>
     <row r="3">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.9637851806302</v>
+        <v>539.69889104956</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.4575607423268</v>
+        <v>738.4398325686681</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.4454707346612</v>
+        <v>667.964171355128</v>
       </c>
       <c r="AD3" t="n">
-        <v>405963.7851806302</v>
+        <v>539698.8910495599</v>
       </c>
       <c r="AE3" t="n">
-        <v>555457.5607423268</v>
+        <v>738439.8325686681</v>
       </c>
       <c r="AF3" t="n">
         <v>7.257966911154374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.57407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>502445.4707346612</v>
+        <v>667964.1713551279</v>
       </c>
     </row>
   </sheetData>
